--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value156.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value156.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.363039602580165</v>
+        <v>2.175534725189209</v>
       </c>
       <c r="B1">
-        <v>2.169580887942216</v>
+        <v>4.552795886993408</v>
       </c>
       <c r="C1">
-        <v>2.269832498767374</v>
+        <v>3.511415243148804</v>
       </c>
       <c r="D1">
-        <v>2.315681153004055</v>
+        <v>3.249753475189209</v>
       </c>
       <c r="E1">
-        <v>0.6751125494724484</v>
+        <v>2.544822931289673</v>
       </c>
     </row>
   </sheetData>
